--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Calca-Ramp1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Calca-Ramp1.xlsx
@@ -537,16 +537,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.06082200000000001</v>
+        <v>0.06082199999999999</v>
       </c>
       <c r="H2">
         <v>0.182466</v>
       </c>
       <c r="I2">
-        <v>0.1419252066466042</v>
+        <v>0.1716860072883705</v>
       </c>
       <c r="J2">
-        <v>0.1419252066466042</v>
+        <v>0.1716860072883705</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,10 +561,10 @@
         <v>1.163484</v>
       </c>
       <c r="O2">
-        <v>0.08738110167492387</v>
+        <v>0.03170629435689145</v>
       </c>
       <c r="P2">
-        <v>0.08738110167492386</v>
+        <v>0.03170629435689145</v>
       </c>
       <c r="Q2">
         <v>0.023588474616</v>
@@ -573,10 +573,10 @@
         <v>0.212296271544</v>
       </c>
       <c r="S2">
-        <v>0.0124015809122215</v>
+        <v>0.005443527084044486</v>
       </c>
       <c r="T2">
-        <v>0.0124015809122215</v>
+        <v>0.005443527084044486</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.06082200000000001</v>
+        <v>0.06082199999999999</v>
       </c>
       <c r="H3">
         <v>0.182466</v>
       </c>
       <c r="I3">
-        <v>0.1419252066466042</v>
+        <v>0.1716860072883705</v>
       </c>
       <c r="J3">
-        <v>0.1419252066466042</v>
+        <v>0.1716860072883705</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.118589666666667</v>
+        <v>7.341370333333333</v>
       </c>
       <c r="N3">
-        <v>3.355769</v>
+        <v>22.024111</v>
       </c>
       <c r="O3">
-        <v>0.252028211979329</v>
+        <v>0.6001826809091065</v>
       </c>
       <c r="P3">
-        <v>0.252028211979329</v>
+        <v>0.6001826809091064</v>
       </c>
       <c r="Q3">
-        <v>0.06803486070600001</v>
+        <v>0.4465168264139999</v>
       </c>
       <c r="R3">
-        <v>0.612313746354</v>
+        <v>4.018651437726</v>
       </c>
       <c r="S3">
-        <v>0.03576915606594042</v>
+        <v>0.1030429681289146</v>
       </c>
       <c r="T3">
-        <v>0.03576915606594042</v>
+        <v>0.1030429681289146</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.06082200000000001</v>
+        <v>0.06082199999999999</v>
       </c>
       <c r="H4">
         <v>0.182466</v>
       </c>
       <c r="I4">
-        <v>0.1419252066466042</v>
+        <v>0.1716860072883705</v>
       </c>
       <c r="J4">
-        <v>0.1419252066466042</v>
+        <v>0.1716860072883705</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -679,28 +679,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.03082633333333333</v>
+        <v>0.008839999999999999</v>
       </c>
       <c r="N4">
-        <v>0.09247899999999999</v>
+        <v>0.02652</v>
       </c>
       <c r="O4">
-        <v>0.006945447381996902</v>
+        <v>0.0007227008934757686</v>
       </c>
       <c r="P4">
-        <v>0.006945447381996902</v>
+        <v>0.0007227008934757686</v>
       </c>
       <c r="Q4">
-        <v>0.001874919246</v>
+        <v>0.0005376664799999998</v>
       </c>
       <c r="R4">
-        <v>0.016874273214</v>
+        <v>0.004838998319999999</v>
       </c>
       <c r="S4">
-        <v>0.0009857340549430263</v>
+        <v>0.0001240776308645927</v>
       </c>
       <c r="T4">
-        <v>0.0009857340549430263</v>
+        <v>0.0001240776308645927</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.06082200000000001</v>
+        <v>0.06082199999999999</v>
       </c>
       <c r="H5">
         <v>0.182466</v>
       </c>
       <c r="I5">
-        <v>0.1419252066466042</v>
+        <v>0.1716860072883705</v>
       </c>
       <c r="J5">
-        <v>0.1419252066466042</v>
+        <v>0.1716860072883705</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.901107</v>
+        <v>4.493854666666667</v>
       </c>
       <c r="N5">
-        <v>8.703321000000001</v>
+        <v>13.481564</v>
       </c>
       <c r="O5">
-        <v>0.6536452389637503</v>
+        <v>0.3673883238405263</v>
       </c>
       <c r="P5">
-        <v>0.6536452389637503</v>
+        <v>0.3673883238405263</v>
       </c>
       <c r="Q5">
-        <v>0.176451129954</v>
+        <v>0.2733252285359999</v>
       </c>
       <c r="R5">
-        <v>1.588060169586</v>
+        <v>2.459927056824</v>
       </c>
       <c r="S5">
-        <v>0.09276873561349923</v>
+        <v>0.06307543444454682</v>
       </c>
       <c r="T5">
-        <v>0.09276873561349923</v>
+        <v>0.06307543444454682</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,22 +779,22 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.3677276666666667</v>
+        <v>0.293441</v>
       </c>
       <c r="H6">
-        <v>1.103183</v>
+        <v>0.880323</v>
       </c>
       <c r="I6">
-        <v>0.8580747933533959</v>
+        <v>0.8283139927116295</v>
       </c>
       <c r="J6">
-        <v>0.8580747933533959</v>
+        <v>0.8283139927116295</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -809,22 +809,22 @@
         <v>1.163484</v>
       </c>
       <c r="O6">
-        <v>0.08738110167492387</v>
+        <v>0.03170629435689145</v>
       </c>
       <c r="P6">
-        <v>0.08738110167492386</v>
+        <v>0.03170629435689145</v>
       </c>
       <c r="Q6">
-        <v>0.142615085508</v>
+        <v>0.113804636148</v>
       </c>
       <c r="R6">
-        <v>1.283535769572</v>
+        <v>1.024241725332</v>
       </c>
       <c r="S6">
-        <v>0.07497952076270237</v>
+        <v>0.02626276727284697</v>
       </c>
       <c r="T6">
-        <v>0.07497952076270237</v>
+        <v>0.02626276727284697</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,22 +841,22 @@
         <v>24</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.3677276666666667</v>
+        <v>0.293441</v>
       </c>
       <c r="H7">
-        <v>1.103183</v>
+        <v>0.880323</v>
       </c>
       <c r="I7">
-        <v>0.8580747933533959</v>
+        <v>0.8283139927116295</v>
       </c>
       <c r="J7">
-        <v>0.8580747933533959</v>
+        <v>0.8283139927116295</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,28 +865,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.118589666666667</v>
+        <v>7.341370333333333</v>
       </c>
       <c r="N7">
-        <v>3.355769</v>
+        <v>22.024111</v>
       </c>
       <c r="O7">
-        <v>0.252028211979329</v>
+        <v>0.6001826809091065</v>
       </c>
       <c r="P7">
-        <v>0.252028211979329</v>
+        <v>0.6001826809091064</v>
       </c>
       <c r="Q7">
-        <v>0.4113363680807778</v>
+        <v>2.154259051983666</v>
       </c>
       <c r="R7">
-        <v>3.702027312727</v>
+        <v>19.388331467853</v>
       </c>
       <c r="S7">
-        <v>0.2162590559133885</v>
+        <v>0.4971397127801919</v>
       </c>
       <c r="T7">
-        <v>0.2162590559133885</v>
+        <v>0.4971397127801919</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,22 +903,22 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.3677276666666667</v>
+        <v>0.293441</v>
       </c>
       <c r="H8">
-        <v>1.103183</v>
+        <v>0.880323</v>
       </c>
       <c r="I8">
-        <v>0.8580747933533959</v>
+        <v>0.8283139927116295</v>
       </c>
       <c r="J8">
-        <v>0.8580747933533959</v>
+        <v>0.8283139927116295</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -927,28 +927,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.03082633333333333</v>
+        <v>0.008839999999999999</v>
       </c>
       <c r="N8">
-        <v>0.09247899999999999</v>
+        <v>0.02652</v>
       </c>
       <c r="O8">
-        <v>0.006945447381996902</v>
+        <v>0.0007227008934757686</v>
       </c>
       <c r="P8">
-        <v>0.006945447381996902</v>
+        <v>0.0007227008934757686</v>
       </c>
       <c r="Q8">
-        <v>0.01133569562855555</v>
+        <v>0.00259401844</v>
       </c>
       <c r="R8">
-        <v>0.102021260657</v>
+        <v>0.02334616596</v>
       </c>
       <c r="S8">
-        <v>0.005959713327053875</v>
+        <v>0.0005986232626111759</v>
       </c>
       <c r="T8">
-        <v>0.005959713327053875</v>
+        <v>0.0005986232626111759</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,22 +965,22 @@
         <v>25</v>
       </c>
       <c r="E9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>0.3677276666666667</v>
+        <v>0.293441</v>
       </c>
       <c r="H9">
-        <v>1.103183</v>
+        <v>0.880323</v>
       </c>
       <c r="I9">
-        <v>0.8580747933533959</v>
+        <v>0.8283139927116295</v>
       </c>
       <c r="J9">
-        <v>0.8580747933533959</v>
+        <v>0.8283139927116295</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.901107</v>
+        <v>4.493854666666667</v>
       </c>
       <c r="N9">
-        <v>8.703321000000001</v>
+        <v>13.481564</v>
       </c>
       <c r="O9">
-        <v>0.6536452389637503</v>
+        <v>0.3673883238405263</v>
       </c>
       <c r="P9">
-        <v>0.6536452389637503</v>
+        <v>0.3673883238405263</v>
       </c>
       <c r="Q9">
-        <v>1.066817307860333</v>
+        <v>1.318681207241333</v>
       </c>
       <c r="R9">
-        <v>9.601355770743002</v>
+        <v>11.868130865172</v>
       </c>
       <c r="S9">
-        <v>0.5608765033502511</v>
+        <v>0.3043128893959794</v>
       </c>
       <c r="T9">
-        <v>0.5608765033502511</v>
+        <v>0.3043128893959794</v>
       </c>
     </row>
   </sheetData>
